--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Continuing Eductation" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>Title</t>
   </si>
@@ -151,6 +151,114 @@
   </si>
   <si>
     <t>International Society of Exposure Science 25th Annual Meeting</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>American Society of Safety Engineers</t>
+  </si>
+  <si>
+    <t>Conducting a Safety Audit</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Georgia Public Safety Training Center</t>
+  </si>
+  <si>
+    <t>Basic Course for Health Assessment and Consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency for Toxic Substances and Disease Registry </t>
+  </si>
+  <si>
+    <t>Introduction to Risk Assessment Guidance for Superfund</t>
+  </si>
+  <si>
+    <t>US Environmental Protection Agency</t>
+  </si>
+  <si>
+    <t>Time Series and Forecasting</t>
+  </si>
+  <si>
+    <t>Practical Stats, Inc.</t>
+  </si>
+  <si>
+    <t>Untangling Multivariate Relationships</t>
+  </si>
+  <si>
+    <t>Nondetects and Data Analysis, Statistical Methods for Censored Environmental Data</t>
+  </si>
+  <si>
+    <t>Principles of Quality Assurance and Quality Control in Environmental Field Programs</t>
+  </si>
+  <si>
+    <t>Montgomery, AL</t>
+  </si>
+  <si>
+    <t>Northwest Environmental Training Center</t>
+  </si>
+  <si>
+    <t>Exposure Risk Training</t>
+  </si>
+  <si>
+    <t>US Environmental Protection Agency Office of Air Quality Planning and Standards</t>
+  </si>
+  <si>
+    <t>Intermediate Incident Command System for Expanding Incidents (ICS300)</t>
+  </si>
+  <si>
+    <t>US Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Applied Environmental Statistics</t>
+  </si>
+  <si>
+    <t>Advanced Command System for Command and General Staff, Complex Incidents and MACS (ICS400)</t>
+  </si>
+  <si>
+    <t>Sampling for Hazardous Matrials</t>
+  </si>
+  <si>
+    <t>Air Monitoring for Emergency Response</t>
+  </si>
+  <si>
+    <t>Interpretation of Biomonitoring Data using Physiologically Based Pharmokinetic (PBPK) Modeling</t>
+  </si>
+  <si>
+    <t>RTP, NC</t>
+  </si>
+  <si>
+    <t>Environmental Sampling, Sampling Reliability and Data Quality Objectives for the Health Assessment Process</t>
+  </si>
+  <si>
+    <t>Envirostat, Inc.</t>
+  </si>
+  <si>
+    <t>CIIT Centers for Health Research</t>
+  </si>
+  <si>
+    <t>AERMOD Air Dispersion Modeling</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Lakes Environmental</t>
+  </si>
+  <si>
+    <t>Edison, NJ</t>
+  </si>
+  <si>
+    <t>Health and Safety (40 Hour HAZWOPER)</t>
+  </si>
+  <si>
+    <t>Longmont, CO</t>
+  </si>
+  <si>
+    <t>\\cdc.gov\private\M309\Hzd3\training\Certificates</t>
   </si>
 </sst>
 </file>
@@ -469,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +642,367 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36617</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36617</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40241</v>
+      </c>
+      <c r="C4" s="1">
+        <v>405483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40805</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40809</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41345</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41347</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41345</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41346</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40982</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40983</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40771</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40772</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40277</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42234</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40118</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40287</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1">
+        <v>39322</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39324</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>38880</v>
+      </c>
+      <c r="C15" s="1">
+        <v>38881</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>38985</v>
+      </c>
+      <c r="C16" s="1">
+        <v>38989</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39629</v>
+      </c>
+      <c r="C17" s="1">
+        <v>39632</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39352</v>
+      </c>
+      <c r="C18" s="1">
+        <v>39353</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39818</v>
+      </c>
+      <c r="C19" s="1">
+        <v>39822</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -543,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hzd3\gitlab\cv_jim\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB351372-8E11-4F47-87B2-5BDB283B1CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="2835" yWindow="1455" windowWidth="20145" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuing Eductation" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>Title</t>
   </si>
@@ -259,19 +260,188 @@
   </si>
   <si>
     <t>\\cdc.gov\private\M309\Hzd3\training\Certificates</t>
+  </si>
+  <si>
+    <t>CDC Statistics Day</t>
+  </si>
+  <si>
+    <t>Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
+  </si>
+  <si>
+    <t>Geological Society of America</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Geology and Health Insights Into Lead Poisoning From Artisanal Gold Mining, NW Nigeria: Sources, Exposure Pathways, Additional Health Concerns, and Global Implications.</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Lead Poisoning Outbreak Zamfara State, Nigeria 2010 – Public Health and Geochemical Investigations</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Florence, AL</t>
+  </si>
+  <si>
+    <t>AmericanChemicalSociety Wilson Dam Section
+Univ. North Alabama American Industrial Hygiene Association Student Section</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics in Environmental Exposure Investigation </t>
+  </si>
+  <si>
+    <t>Analysis of Environmental Data - Censored Data Demythed</t>
+  </si>
+  <si>
+    <t>Ethylene Oxide Air Monitoring Data Analysis Sterigenics International Facility – Willowbrook, IL</t>
+  </si>
+  <si>
+    <t>Georgia Local Section, American Industrial Hygiene Association</t>
+  </si>
+  <si>
+    <t>Stats, R</t>
+  </si>
+  <si>
+    <t>Stats, R, Air</t>
+  </si>
+  <si>
+    <t>Exposure Point Concentration (EPC) Guidance Development - A Sneak Peek at What is Coming!</t>
+  </si>
+  <si>
+    <t>J. Durant, G. Ulirsch</t>
+  </si>
+  <si>
+    <t>Stats, Policy</t>
+  </si>
+  <si>
+    <t>ATSDR’s Partnership to Promote Localized Efforts to Reduce Environmental Exposure (APPLETREE) Partners Meeting</t>
+  </si>
+  <si>
+    <t>G. Plumlee ,J. Durant</t>
+  </si>
+  <si>
+    <t>Technical Assistance Report: Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
+  </si>
+  <si>
+    <t>ATSDR</t>
+  </si>
+  <si>
+    <t>The openair package: Tools for data analysis of air contaminants using R</t>
+  </si>
+  <si>
+    <t>ATSDR Topics in Exposure Investigations</t>
+  </si>
+  <si>
+    <t>B. Goodwin, D. Gable, A. Young, J. Durant</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Airborne Exposures to Particulate Matter and Silica Dust in Valley School, Valley, WA</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: DuPont Delisle Plant, Pass Christian, Harrison county, MS</t>
+  </si>
+  <si>
+    <t>Dioxin</t>
+  </si>
+  <si>
+    <t>J. Durant L. Rosales-Guevara, G. Zarus</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Illinois Beach State Park, Zion, Lake County, IL</t>
+  </si>
+  <si>
+    <t>J. Durant J. Wheeler, M Johnson</t>
+  </si>
+  <si>
+    <t>Asbestos</t>
+  </si>
+  <si>
+    <t>Addendum to the Toxicological Profile for 3,3’-Dichlorobenzidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Durant, Y. Iossifova, J. Purvis </t>
+  </si>
+  <si>
+    <t>Tox</t>
+  </si>
+  <si>
+    <t>Health Consultation – Sulfolane (I)</t>
+  </si>
+  <si>
+    <t>Health Consultation – Sulfolane (II)</t>
+  </si>
+  <si>
+    <t>Community Meeting - Sulfolane Public Health Consultation</t>
+  </si>
+  <si>
+    <t>North Pole, AK</t>
+  </si>
+  <si>
+    <t>Alaska Department of Health Environmental Public Health Program</t>
+  </si>
+  <si>
+    <t>Poster Session: 	Exposure Investigation of Asbestos in the Sands of Illinois Beach State Park</t>
+  </si>
+  <si>
+    <t>J. Durant, J. Wheeler, M. Johnson, S. Metcalf</t>
+  </si>
+  <si>
+    <t>Altanta, GA</t>
+  </si>
+  <si>
+    <t>National Environmental Public Health Conference</t>
+  </si>
+  <si>
+    <t>How to Handle Non-detect Environmental Data? Kaplan-Meier Product Limit and Alternatives</t>
+  </si>
+  <si>
+    <t>Atlanta,GA</t>
+  </si>
+  <si>
+    <t>ATSDR Office of Community Health Hazard Assessment Brown Bag</t>
+  </si>
+  <si>
+    <t>Health Consultation: Pointe Coupee Wood Treating, New Roads, Point Couppe Parish, LA</t>
+  </si>
+  <si>
+    <t>J. Durant, SC Tsai</t>
+  </si>
+  <si>
+    <t>Health Consultation: Burlington Northern Fueling Facility, Helena, MT</t>
+  </si>
+  <si>
+    <t>Health Consultation: Review of Analysis of Particulate Matter and Metal Exposures in Air, KCBX, Chicago, Cook County, IL</t>
+  </si>
+  <si>
+    <t>M. Colledge, J. Durant, B. Goodwin, M. Caudill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,9 +464,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +747,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1005,15 +1176,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,25 +1473,519 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41878</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41878</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41219</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41753</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41753</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43181</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43181</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43776</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43776</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42872</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42872</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42789</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42789</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1">
+        <v>40680</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40680</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40112</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44783</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44783</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41965</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41965</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43676</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43676</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39176</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39374</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39374</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40299</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40665</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40665</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40212</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38134</v>
+      </c>
+      <c r="D9" s="1">
+        <v>38134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38723</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38723</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42604</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42604</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1329,11 +1995,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1341,5 +2008,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hzd3\gitlab\cv_jim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21535D6-779D-4CA7-B1B2-CEEBC7F6E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Continuing Eductation" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Short Presentations" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Governmental Publications" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Teaching" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Poster Platforms" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Continuing Eductation" sheetId="1" r:id="rId1"/>
+    <sheet name="Short Presentations" sheetId="2" r:id="rId2"/>
+    <sheet name="Governmental Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Teaching" sheetId="4" r:id="rId4"/>
+    <sheet name="Poster Platforms" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,481 +29,485 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start.Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End.Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Health Training in Emergency Response (EHTER) - Awareness Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlanta, GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Environmental Health Association and US Centers for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\cdc.gov\private\M309\Hzd3\Continuing Eduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conducting a Safety Audit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Society of Safety Engineers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Command System for Command and General Staff, Complex Incidents and MACS (ICS400)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Public Safety Training Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\cdc.gov\private\M309\Hzd3\training\Certificates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Course for Health Assessment and Consultation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Start.Date</t>
+  </si>
+  <si>
+    <t>End.Date</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Certificate Location</t>
+  </si>
+  <si>
+    <t>Environmental Health Training in Emergency Response (EHTER) - Awareness Level</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>National Environmental Health Association and US Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>\\cdc.gov\private\M309\Hzd3\Continuing Eduction</t>
+  </si>
+  <si>
+    <t>Conducting a Safety Audit</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>American Society of Safety Engineers</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Advanced Command System for Command and General Staff, Complex Incidents and MACS (ICS400)</t>
+  </si>
+  <si>
+    <t>Georgia Public Safety Training Center</t>
+  </si>
+  <si>
+    <t>\\cdc.gov\private\M309\Hzd3\training\Certificates</t>
+  </si>
+  <si>
+    <t>Basic Course for Health Assessment and Consultation</t>
   </si>
   <si>
     <t xml:space="preserve">Agency for Toxic Substances and Disease Registry </t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to Risk Assessment Guidance for Superfund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Environmental Protection Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Series and Forecasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practical Stats, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untangling Multivariate Relationships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nondetects and Data Analysis, Statistical Methods for Censored Environmental Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principles of Quality Assurance and Quality Control in Environmental Field Programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery, AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwest Environmental Training Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Risk Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Environmental Protection Agency Office of Air Quality Planning and Standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate Incident Command System for Expanding Incidents (ICS300)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Centers for Disease Control and Prevention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Environmental Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling for Hazardous Matrials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longmont, CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Monitoring for Emergency Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpretation of Biomonitoring Data using Physiologically Based Pharmokinetic (PBPK) Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTP, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIIT Centers for Health Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Sampling, Sampling Reliability and Data Quality Objectives for the Health Assessment Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envirostat, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AERMOD Air Dispersion Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakes Environmental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health and Safety (40 Hour HAZWOPER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edison, NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using R in Environmental Public Health Data Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennesaw, GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennesaw State University R Day 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plyr and data.table Packages - A Basic Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.Durant, D. Freedman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC R Users Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproducible Research: Tools for R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Lattice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Web Scraping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant, D. Sutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasters in R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The openair package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini R Lecture Series, Part 2: Learn R for learners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimating exposure to air pollutants from a pulp and paper mill in a coastal NW Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Goodwin, J. Durant, D. Gable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durham, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Society of Exposure Science 27th Annual Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spatial, temporal and meteorological trends in benzene air concentrations in Corpus Christi Refinery Row, Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant, D. Langmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using R to Characterizing Community Exposure to Environmental Contaminants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henderson, NV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Society of Exposure Science 25th Annual Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC Statistics Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geology and Health Insights Into Lead Poisoning From Artisanal Gold Mining, NW Nigeria: Sources, Exposure Pathways, Additional Health Concerns, and Global Implications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Plumlee ,J. Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geological Society of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Poisoning Outbreak Zamfara State, Nigeria 2010 – Public Health and Geochemical Investigations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florence, AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmericanChemicalSociety Wilson Dam Section
+    <t>Introduction to Risk Assessment Guidance for Superfund</t>
+  </si>
+  <si>
+    <t>US Environmental Protection Agency</t>
+  </si>
+  <si>
+    <t>Time Series and Forecasting</t>
+  </si>
+  <si>
+    <t>Practical Stats, Inc.</t>
+  </si>
+  <si>
+    <t>Untangling Multivariate Relationships</t>
+  </si>
+  <si>
+    <t>Nondetects and Data Analysis, Statistical Methods for Censored Environmental Data</t>
+  </si>
+  <si>
+    <t>Principles of Quality Assurance and Quality Control in Environmental Field Programs</t>
+  </si>
+  <si>
+    <t>Montgomery, AL</t>
+  </si>
+  <si>
+    <t>Northwest Environmental Training Center</t>
+  </si>
+  <si>
+    <t>Exposure Risk Training</t>
+  </si>
+  <si>
+    <t>US Environmental Protection Agency Office of Air Quality Planning and Standards</t>
+  </si>
+  <si>
+    <t>Intermediate Incident Command System for Expanding Incidents (ICS300)</t>
+  </si>
+  <si>
+    <t>US Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Applied Environmental Statistics</t>
+  </si>
+  <si>
+    <t>Sampling for Hazardous Matrials</t>
+  </si>
+  <si>
+    <t>Longmont, CO</t>
+  </si>
+  <si>
+    <t>Air Monitoring for Emergency Response</t>
+  </si>
+  <si>
+    <t>Interpretation of Biomonitoring Data using Physiologically Based Pharmokinetic (PBPK) Modeling</t>
+  </si>
+  <si>
+    <t>RTP, NC</t>
+  </si>
+  <si>
+    <t>CIIT Centers for Health Research</t>
+  </si>
+  <si>
+    <t>Environmental Sampling, Sampling Reliability and Data Quality Objectives for the Health Assessment Process</t>
+  </si>
+  <si>
+    <t>Envirostat, Inc.</t>
+  </si>
+  <si>
+    <t>AERMOD Air Dispersion Modeling</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Lakes Environmental</t>
+  </si>
+  <si>
+    <t>Health and Safety (40 Hour HAZWOPER)</t>
+  </si>
+  <si>
+    <t>Edison, NJ</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Using R in Environmental Public Health Data Analysis</t>
+  </si>
+  <si>
+    <t>J.Durant</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Kennesaw, GA</t>
+  </si>
+  <si>
+    <t>Kennesaw State University R Day 2018</t>
+  </si>
+  <si>
+    <t>plyr and data.table Packages - A Basic Introduction</t>
+  </si>
+  <si>
+    <t>J.Durant, D. Freedman</t>
+  </si>
+  <si>
+    <t>CDC R Users Group</t>
+  </si>
+  <si>
+    <t>Reproducible Research: Tools for R</t>
+  </si>
+  <si>
+    <t>J. Durant</t>
+  </si>
+  <si>
+    <t>Introduction to Lattice</t>
+  </si>
+  <si>
+    <t>Introduction to Web Scraping</t>
+  </si>
+  <si>
+    <t>J. Durant, D. Sutton</t>
+  </si>
+  <si>
+    <t>Rasters in R</t>
+  </si>
+  <si>
+    <t>The openair package</t>
+  </si>
+  <si>
+    <t>Mini R Lecture Series, Part 2: Learn R for learners</t>
+  </si>
+  <si>
+    <t>Estimating exposure to air pollutants from a pulp and paper mill in a coastal NW Washington</t>
+  </si>
+  <si>
+    <t>B. Goodwin, J. Durant, D. Gable</t>
+  </si>
+  <si>
+    <t>ISES</t>
+  </si>
+  <si>
+    <t>Durham, NC</t>
+  </si>
+  <si>
+    <t>International Society of Exposure Science 27th Annual Meeting</t>
+  </si>
+  <si>
+    <t>Spatial, temporal and meteorological trends in benzene air concentrations in Corpus Christi Refinery Row, Texas</t>
+  </si>
+  <si>
+    <t>J. Durant, D. Langmann</t>
+  </si>
+  <si>
+    <t>Using R to Characterizing Community Exposure to Environmental Contaminants</t>
+  </si>
+  <si>
+    <t>Henderson, NV</t>
+  </si>
+  <si>
+    <t>International Society of Exposure Science 25th Annual Meeting</t>
+  </si>
+  <si>
+    <t>Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
+  </si>
+  <si>
+    <t>CDC Statistics Day</t>
+  </si>
+  <si>
+    <t>Geology and Health Insights Into Lead Poisoning From Artisanal Gold Mining, NW Nigeria: Sources, Exposure Pathways, Additional Health Concerns, and Global Implications.</t>
+  </si>
+  <si>
+    <t>G. Plumlee ,J. Durant</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Geological Society of America</t>
+  </si>
+  <si>
+    <t>Lead Poisoning Outbreak Zamfara State, Nigeria 2010 – Public Health and Geochemical Investigations</t>
+  </si>
+  <si>
+    <t>Florence, AL</t>
+  </si>
+  <si>
+    <t>AmericanChemicalSociety Wilson Dam Section
 Univ. North Alabama American Industrial Hygiene Association Student Section</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis of Environmental Data - Censored Data Demythed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stats, R</t>
+    <t>Analysis of Environmental Data - Censored Data Demythed</t>
+  </si>
+  <si>
+    <t>Stats, R</t>
   </si>
   <si>
     <t xml:space="preserve">Topics in Environmental Exposure Investigation </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethylene Oxide Air Monitoring Data Analysis Sterigenics International Facility – Willowbrook, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stats, R, Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia Local Section, American Industrial Hygiene Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Point Concentration (EPC) Guidance Development - A Sneak Peek at What is Coming!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant, G. Ulirsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stats, Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSDR’s Partnership to Promote Localized Efforts to Reduce Environmental Exposure (APPLETREE) Partners Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The openair package: Tools for data analysis of air contaminants using R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSDR Topics in Exposure Investigations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Meeting - Sulfolane Public Health Consultation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Pole, AK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska Department of Health Environmental Public Health Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster Session: 	Exposure Investigation of Asbestos in the Sands of Illinois Beach State Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant, J. Wheeler, M. Johnson, S. Metcalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asbestos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altanta, GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Environmental Public Health Conference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to Handle Non-detect Environmental Data? Kaplan-Meier Product Limit and Alternatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlanta,GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSDR Office of Community Health Hazard Assessment Brown Bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Assistance Report: Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATSDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Investigation: Airborne Exposures to Particulate Matter and Silica Dust in Valley School, Valley, WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Goodwin, D. Gable, A. Young, J. Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Investigation: DuPont Delisle Plant, Pass Christian, Harrison county, MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant L. Rosales-Guevara, G. Zarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Investigation: Illinois Beach State Park, Zion, Lake County, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant J. Wheeler, M Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addendum to the Toxicological Profile for 3,3’-Dichlorobenzidine</t>
+    <t>Ethylene Oxide Air Monitoring Data Analysis Sterigenics International Facility – Willowbrook, IL</t>
+  </si>
+  <si>
+    <t>Stats, R, Air</t>
+  </si>
+  <si>
+    <t>Georgia Local Section, American Industrial Hygiene Association</t>
+  </si>
+  <si>
+    <t>Exposure Point Concentration (EPC) Guidance Development - A Sneak Peek at What is Coming!</t>
+  </si>
+  <si>
+    <t>J. Durant, G. Ulirsch</t>
+  </si>
+  <si>
+    <t>Stats, Policy</t>
+  </si>
+  <si>
+    <t>ATSDR’s Partnership to Promote Localized Efforts to Reduce Environmental Exposure (APPLETREE) Partners Meeting</t>
+  </si>
+  <si>
+    <t>The openair package: Tools for data analysis of air contaminants using R</t>
+  </si>
+  <si>
+    <t>ATSDR Topics in Exposure Investigations</t>
+  </si>
+  <si>
+    <t>Community Meeting - Sulfolane Public Health Consultation</t>
+  </si>
+  <si>
+    <t>Tox</t>
+  </si>
+  <si>
+    <t>North Pole, AK</t>
+  </si>
+  <si>
+    <t>Alaska Department of Health Environmental Public Health Program</t>
+  </si>
+  <si>
+    <t>Poster Session: 	Exposure Investigation of Asbestos in the Sands of Illinois Beach State Park</t>
+  </si>
+  <si>
+    <t>J. Durant, J. Wheeler, M. Johnson, S. Metcalf</t>
+  </si>
+  <si>
+    <t>Asbestos</t>
+  </si>
+  <si>
+    <t>Altanta, GA</t>
+  </si>
+  <si>
+    <t>National Environmental Public Health Conference</t>
+  </si>
+  <si>
+    <t>How to Handle Non-detect Environmental Data? Kaplan-Meier Product Limit and Alternatives</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Atlanta,GA</t>
+  </si>
+  <si>
+    <t>ATSDR Office of Community Health Hazard Assessment Brown Bag</t>
+  </si>
+  <si>
+    <t>Technical Assistance Report: Characterization of particulate matter (PM10) from Beta Attenuation Monitor and Partisol sampler at Valley School, Washington using openair package for R statistical software</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>ATSDR</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Airborne Exposures to Particulate Matter and Silica Dust in Valley School, Valley, WA</t>
+  </si>
+  <si>
+    <t>B. Goodwin, D. Gable, A. Young, J. Durant</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: DuPont Delisle Plant, Pass Christian, Harrison county, MS</t>
+  </si>
+  <si>
+    <t>J. Durant L. Rosales-Guevara, G. Zarus</t>
+  </si>
+  <si>
+    <t>Dioxin</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Illinois Beach State Park, Zion, Lake County, IL</t>
+  </si>
+  <si>
+    <t>J. Durant J. Wheeler, M Johnson</t>
+  </si>
+  <si>
+    <t>Addendum to the Toxicological Profile for 3,3’-Dichlorobenzidine</t>
   </si>
   <si>
     <t xml:space="preserve">J. Durant, Y. Iossifova, J. Purvis </t>
   </si>
   <si>
-    <t xml:space="preserve">Health Consultation – Sulfolane (II)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation – Sulfolane (I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: Pointe Coupee Wood Treating, New Roads, Point Couppe Parish, LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: Burlington Northern Fueling Facility, Helena, MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Durant, SC Tsai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: Review of Analysis of Particulate Matter and Metal Exposures in Air, KCBX, Chicago, Cook County, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Colledge, J. Durant, B. Goodwin, M. Caudill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Sterigenics, Willowbrook, Dupage County, Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Colledge, J. Durant, L. Hoadley, D. Rickless, A. Berens, T. Musial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: Health Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Medline Industries and Vantage Specialty Chemicals, Lake County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Hoadley, J. Durant, M. Colledge, M. Johnsons, C. Anderson, V. Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure Investigation: Supplemental Exposure Investigation at Select PFAS Exposure Assessment Sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K. Scruton, P. Kowalski, R. Tchen, J. Pyon, J. Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: W.R. Grace &amp; Co., Ellwood City, Pennsylvania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/2292005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation W.R. Grace &amp; Company Santa Ana Plant, Santa Ana, California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: W.R. Grace Newark Plant. Newark, California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Consultation: W.R. Grace &amp; Company (a/k/a Zonolite Co. Wilders) Wilder, Kentucky</t>
+    <t>Health Consultation – Sulfolane (II)</t>
+  </si>
+  <si>
+    <t>Health Consultation – Sulfolane (I)</t>
+  </si>
+  <si>
+    <t>Health Consultation: Pointe Coupee Wood Treating, New Roads, Point Couppe Parish, LA</t>
+  </si>
+  <si>
+    <t>Health Consultation: Burlington Northern Fueling Facility, Helena, MT</t>
+  </si>
+  <si>
+    <t>J. Durant, SC Tsai</t>
+  </si>
+  <si>
+    <t>Health Consultation: Review of Analysis of Particulate Matter and Metal Exposures in Air, KCBX, Chicago, Cook County, IL</t>
+  </si>
+  <si>
+    <t>M. Colledge, J. Durant, B. Goodwin, M. Caudill</t>
+  </si>
+  <si>
+    <t>Health Consultation: Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Sterigenics, Willowbrook, Dupage County, Illinois</t>
+  </si>
+  <si>
+    <t>M. Colledge, J. Durant, L. Hoadley, D. Rickless, A. Berens, T. Musial</t>
+  </si>
+  <si>
+    <t>Health Consultation: Health Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Medline Industries and Vantage Specialty Chemicals, Lake County</t>
+  </si>
+  <si>
+    <t>L. Hoadley, J. Durant, M. Colledge, M. Johnsons, C. Anderson, V. Lee</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Supplemental Exposure Investigation at Select PFAS Exposure Assessment Sites</t>
+  </si>
+  <si>
+    <t>K. Scruton, P. Kowalski, R. Tchen, J. Pyon, J. Durant</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Health Consultation: W.R. Grace &amp; Co., Ellwood City, Pennsylvania</t>
+  </si>
+  <si>
+    <t>9/2292005</t>
+  </si>
+  <si>
+    <t>Health Consultation W.R. Grace &amp; Company Santa Ana Plant, Santa Ana, California</t>
+  </si>
+  <si>
+    <t>Health Consultation: W.R. Grace Newark Plant. Newark, California</t>
+  </si>
+  <si>
+    <t>Health Consultation: W.R. Grace &amp; Company (a/k/a Zonolite Co. Wilders) Wilder, Kentucky</t>
   </si>
   <si>
     <t xml:space="preserve">Summary Report Exposure to Asbestos-Containing Vermiculite from Libby, Montana, at 28 Processing Sites in the United States </t>
   </si>
   <si>
-    <t xml:space="preserve">B. Anderson, J. Durant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpus Christi Refineries (Site Wide Activities) (A/K/A Corpus Christi Refinery Row), Corpus Christi, TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Langman, J. Durant, W. Wattigney, A Young, R. Worley, A Lang, R Suarez-Soto, K. Scruton, L. Rosales-Guevara, D Sutton, F. Fowler</t>
+    <t>B. Anderson, J. Durant</t>
+  </si>
+  <si>
+    <t>Corpus Christi Refineries (Site Wide Activities) (A/K/A Corpus Christi Refinery Row), Corpus Christi, TX</t>
+  </si>
+  <si>
+    <t>D. Langman, J. Durant, W. Wattigney, A Young, R. Worley, A Lang, R Suarez-Soto, K. Scruton, L. Rosales-Guevara, D Sutton, F. Fowler</t>
+  </si>
+  <si>
+    <t>Exposure Investigation: Rumpke Medora Landfill, Medora, IN</t>
+  </si>
+  <si>
+    <t>J. Durant, M. Colledge, C. Koher</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Health Consultation: Altantic Station Redevelopment</t>
+  </si>
+  <si>
+    <t>Health Consultation: Dupont Delisle Plant (Groundwater Concerns), Pass Christian, MS</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>J. Durant, F. Schnell, L Rosales-Guevara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,7 +533,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -532,125 +541,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -682,7 +652,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -706,7 +676,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -766,33 +736,32 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
+    <col min="1" max="1" width="75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,14 +787,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>43032</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>43035</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -834,7 +803,7 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -844,14 +813,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>36617</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>36617</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -864,14 +833,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>40241</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>405483</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -884,14 +853,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>40805</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>40809</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -904,14 +873,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>41345</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>41347</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -924,14 +893,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>41345</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>41346</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -940,7 +909,7 @@
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -950,14 +919,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>40982</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>40983</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -966,7 +935,7 @@
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -976,14 +945,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>40771</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>40772</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -992,7 +961,7 @@
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1002,14 +971,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>40277</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>40278</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1018,7 +987,7 @@
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1028,14 +997,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>42234</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>42236</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1044,21 +1013,21 @@
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>40118</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>40120</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1071,14 +1040,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>40287</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>40291</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1088,14 +1057,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>39322</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>39324</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1108,14 +1077,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>38880</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>38881</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1128,14 +1097,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>38985</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>38989</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1148,14 +1117,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>39629</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>39632</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1168,14 +1137,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>39352</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>39353</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1188,14 +1157,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>39818</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>39822</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1206,37 +1175,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="98.12"/>
+    <col min="1" max="1" width="84.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="98.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,17 +1220,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>43420</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>43420</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1282,17 +1243,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>41690</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>41690</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1305,17 +1266,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>41942</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>41942</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1328,17 +1289,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>42089</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>42089</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1351,17 +1312,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>42460</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>42460</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1374,17 +1335,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>43442</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>43442</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1397,17 +1358,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>42712</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>42712</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1420,17 +1381,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>43076</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>43076</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1443,17 +1404,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>43024</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>43024</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1466,17 +1427,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>43024</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>43024</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1489,17 +1450,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>42296</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>42296</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1512,17 +1473,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>41878</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>41878</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1535,17 +1496,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>41219</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>41219</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1558,17 +1519,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>41753</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>41753</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1581,17 +1542,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>43181</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>43181</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1604,17 +1565,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>43776</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>43776</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1627,17 +1588,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>42872</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>42872</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1650,17 +1611,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>42789</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>42789</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1673,17 +1634,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>40680</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>40680</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1696,17 +1657,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>40112</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>40112</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1719,17 +1680,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>44783</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>44783</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1743,37 +1704,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="173.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.84"/>
+    <col min="1" max="1" width="173.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,17 +1749,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>41965</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>41965</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1819,17 +1772,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>43676</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>43676</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1842,17 +1795,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>39176</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>39176</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1865,17 +1818,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>39374</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>39374</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1888,17 +1841,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>40299</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>40299</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1911,17 +1864,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>40665</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>40665</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1934,17 +1887,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>40212</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>40212</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1957,17 +1910,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>38134</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>38134</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1980,17 +1933,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>38723</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>38723</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2003,17 +1956,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>42604</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>42604</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2026,17 +1979,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>45247</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>45247</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2049,17 +2002,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>45464</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>45464</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2072,17 +2025,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>45575</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>45575</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2095,14 +2048,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>38617</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2118,17 +2071,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>37873</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>37873</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2141,17 +2094,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>38617</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>38617</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2164,17 +2117,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>38617</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>38617</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2187,17 +2140,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>39750</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>39750</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2210,17 +2163,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>42611</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>42611</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2233,64 +2186,109 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="2">
+        <v>39114</v>
+      </c>
+      <c r="D21" s="2">
+        <v>39114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>38207</v>
+      </c>
+      <c r="D22" s="2">
+        <v>38207</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="2">
+        <v>38399</v>
+      </c>
+      <c r="D23" s="2">
+        <v>38399</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="Health Consultation: Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Sterigenics, Willowbrook, Dupage County, Illinois"/>
-    <hyperlink ref="A13" r:id="rId2" display="Health Consultation: Health Evaluation of Ethylene Oxide Concentrations in Outdoor Air Near Medline Industries and Vantage Specialty Chemicals, Lake County"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>